--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F2473-70BD-DC48-9DE8-E1B179D426AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67420211-86A5-C949-BB82-51B5212C8549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3160" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>crop_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>description</t>
   </si>
@@ -37,9 +34,6 @@
     <t>Chinese red spinach or amaranth leaves are nutritionally similar to Swiss chard, spinach and beetroot leaves, and offer a rich source of carotenoids, vitamin C, minerals and trace elements. The leaves also contain the amino acids methionine and lysine making them a great companion for rice which is deficient in lysine. https://zenxin.com.sg/store/fresh-produce/vegetables-fresh-produce/organic-bayam-spinach-red-150g-thailand</t>
   </si>
   <si>
-    <t>BayamRed</t>
-  </si>
-  <si>
     <t>dli_l</t>
   </si>
   <si>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>dli_u</t>
+  </si>
+  <si>
+    <t>AmaranthRed</t>
+  </si>
+  <si>
+    <t>type_crop</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -488,75 +488,75 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="170">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -571,7 +571,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>35</v>
@@ -586,13 +586,13 @@
         <v>0.6</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
-        <v>10</v>
+      <c r="O2">
+        <v>12</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -601,10 +601,10 @@
         <v>4.5</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2">
         <v>8</v>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67420211-86A5-C949-BB82-51B5212C8549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B111D91-F849-F148-AF14-D5709BAA5FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>description</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>type_crop</t>
+  </si>
+  <si>
+    <t>cycl_i_day</t>
+  </si>
+  <si>
+    <t>cycl_s_day</t>
+  </si>
+  <si>
+    <t>n_cycl</t>
   </si>
 </sst>
 </file>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -483,10 +492,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -521,34 +530,43 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="170">
+    <row r="2" spans="1:23" ht="170">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -583,30 +601,39 @@
         <v>30</v>
       </c>
       <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
         <v>0.6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>4.5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>8</v>
       </c>
     </row>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B111D91-F849-F148-AF14-D5709BAA5FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D23F0-820E-1049-A4CB-DCDAA2EE821F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="crop" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>description</t>
   </si>
@@ -46,12 +46,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>yld_bia_l_kg_sqm</t>
-  </si>
-  <si>
-    <t>yld_bia_u_kg_sqm</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -104,6 +98,18 @@
   </si>
   <si>
     <t>n_cycl</t>
+  </si>
+  <si>
+    <t>yld_bia_e_g_sqm_cycl</t>
+  </si>
+  <si>
+    <t>yld_bia_w_g_sqm_cycl</t>
+  </si>
+  <si>
+    <t>yld_bia_f_g_sqm_cycl</t>
+  </si>
+  <si>
+    <t>yld_bia_b_g_sqm_cycl</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -492,10 +498,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,52 +509,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
@@ -557,24 +563,30 @@
         <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" ht="170">
+    <row r="2" spans="1:25" ht="170">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -589,7 +601,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>35</v>
@@ -613,7 +625,7 @@
         <v>0.6</v>
       </c>
       <c r="P2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -627,13 +639,19 @@
       <c r="T2">
         <v>4.5</v>
       </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>8</v>
+      <c r="U2">
+        <v>265</v>
+      </c>
+      <c r="V2">
+        <v>129</v>
       </c>
       <c r="W2">
+        <v>334</v>
+      </c>
+      <c r="X2">
+        <v>56</v>
+      </c>
+      <c r="Y2">
         <v>8</v>
       </c>
     </row>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D23F0-820E-1049-A4CB-DCDAA2EE821F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126C79B-F7DC-7042-8F55-68717595BCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
-    <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
+    <sheet name="cost" sheetId="2" r:id="rId2"/>
+    <sheet name="env" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>description</t>
   </si>
@@ -110,6 +111,93 @@
   </si>
   <si>
     <t>yld_bia_b_g_sqm_cycl</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>idn</t>
+  </si>
+  <si>
+    <t>mys</t>
+  </si>
+  <si>
+    <t>sgp_soil</t>
+  </si>
+  <si>
+    <t>sgp_hydro</t>
+  </si>
+  <si>
+    <t>sgp_hydro_gh</t>
+  </si>
+  <si>
+    <t>sgp_soil_gh</t>
+  </si>
+  <si>
+    <t>ghg_total</t>
+  </si>
+  <si>
+    <t>ghg_production</t>
+  </si>
+  <si>
+    <t>ghg_processing</t>
+  </si>
+  <si>
+    <t>ghg_transport</t>
+  </si>
+  <si>
+    <t>energy_total</t>
+  </si>
+  <si>
+    <t>energy_production</t>
+  </si>
+  <si>
+    <t>energy_processing</t>
+  </si>
+  <si>
+    <t>energy_transport</t>
+  </si>
+  <si>
+    <t>water_total</t>
+  </si>
+  <si>
+    <t>water_production</t>
+  </si>
+  <si>
+    <t>water_processing</t>
+  </si>
+  <si>
+    <t>water_transport</t>
+  </si>
+  <si>
+    <t>ghg_unit</t>
+  </si>
+  <si>
+    <t>energy_unit</t>
+  </si>
+  <si>
+    <t>water_unit</t>
+  </si>
+  <si>
+    <t>future_sce</t>
+  </si>
+  <si>
+    <t>kg_CO2_eq_per_kg</t>
+  </si>
+  <si>
+    <t>kWh_per_kg</t>
+  </si>
+  <si>
+    <t>litre_per_kg</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>crop_type</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -489,9 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -657,6 +743,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -692,4 +779,427 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F099D-606A-354D-9FEF-45FAE806DF04}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>0.46926400000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.28902699999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.10198699999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.825E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>2.2501340000000001</v>
+      </c>
+      <c r="K2">
+        <v>1.1858040000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.68757500000000005</v>
+      </c>
+      <c r="M2">
+        <v>0.37675500000000001</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2">
+        <v>40.514409999999998</v>
+      </c>
+      <c r="P2">
+        <v>38.527320000000003</v>
+      </c>
+      <c r="Q2">
+        <v>1.902155</v>
+      </c>
+      <c r="R2">
+        <v>8.4938E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>0.44530500000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.29070800000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.10198699999999999</v>
+      </c>
+      <c r="H3">
+        <v>5.2609999999999997E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <v>2.1193759999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.192204</v>
+      </c>
+      <c r="L3">
+        <v>0.68757500000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.23959800000000001</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>40.495780000000003</v>
+      </c>
+      <c r="P3">
+        <v>38.53501</v>
+      </c>
+      <c r="Q3">
+        <v>1.902155</v>
+      </c>
+      <c r="R3">
+        <v>5.8622E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>0.37559100000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.27157199999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.100878</v>
+      </c>
+      <c r="H4">
+        <v>3.1410000000000001E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4">
+        <v>1.826109</v>
+      </c>
+      <c r="K4">
+        <v>1.1282760000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.68271899999999996</v>
+      </c>
+      <c r="M4">
+        <v>1.5114000000000001E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>37.894750000000002</v>
+      </c>
+      <c r="P4">
+        <v>36.008139999999997</v>
+      </c>
+      <c r="Q4">
+        <v>1.8832</v>
+      </c>
+      <c r="R4">
+        <v>3.4150000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>0.422315</v>
+      </c>
+      <c r="F5">
+        <v>0.31795699999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.10133399999999999</v>
+      </c>
+      <c r="H5">
+        <v>3.0230000000000001E-3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>2.4436909999999998</v>
+      </c>
+      <c r="K5">
+        <v>1.744761</v>
+      </c>
+      <c r="L5">
+        <v>0.68437800000000004</v>
+      </c>
+      <c r="M5">
+        <v>1.4551E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>22.6083</v>
+      </c>
+      <c r="P5">
+        <v>20.269490000000001</v>
+      </c>
+      <c r="Q5">
+        <v>2.3355239999999999</v>
+      </c>
+      <c r="R5">
+        <v>3.2850000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>0.26783000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.16390399999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.100878</v>
+      </c>
+      <c r="H6">
+        <v>3.0479999999999999E-3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>1.6524460000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.95505600000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.68271899999999996</v>
+      </c>
+      <c r="M6">
+        <v>1.4671E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>35.471089999999997</v>
+      </c>
+      <c r="P6">
+        <v>33.584580000000003</v>
+      </c>
+      <c r="Q6">
+        <v>1.8831979999999999</v>
+      </c>
+      <c r="R6">
+        <v>3.313E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>1.5373619999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.433359</v>
+      </c>
+      <c r="G7">
+        <v>0.100878</v>
+      </c>
+      <c r="H7">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>7.5076039999999997</v>
+      </c>
+      <c r="K7">
+        <v>6.8099530000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.68271899999999996</v>
+      </c>
+      <c r="M7">
+        <v>1.4933E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <v>14.00427</v>
+      </c>
+      <c r="P7">
+        <v>12.117610000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1.8831979999999999</v>
+      </c>
+      <c r="R7">
+        <v>3.4640000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126C79B-F7DC-7042-8F55-68717595BCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB42DE-6953-E548-8324-08CBD2CFC288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>description</t>
   </si>
@@ -575,9 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -587,7 +589,7 @@
     <col min="25" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -660,11 +662,8 @@
       <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" ht="170">
+    <row r="2" spans="1:24" ht="170">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -736,9 +735,6 @@
       </c>
       <c r="X2">
         <v>56</v>
-      </c>
-      <c r="Y2">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -749,17 +745,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28D85-B064-F646-954A-277E8D659D34}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -776,6 +776,14 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -785,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F099D-606A-354D-9FEF-45FAE806DF04}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB42DE-6953-E548-8324-08CBD2CFC288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C0263-AF03-8E44-9117-3EC7614DCD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>description</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>IR_%</t>
+  </si>
+  <si>
+    <t>LT_yr</t>
+  </si>
+  <si>
+    <t>seed_sgd_sqm</t>
+  </si>
+  <si>
+    <t>pesticide_sgd_sqm</t>
+  </si>
+  <si>
+    <t>fertilizer_sgd_sqm</t>
+  </si>
+  <si>
+    <t>shelf_sgd_sqm</t>
+  </si>
+  <si>
+    <t>soil_sgd_sqm</t>
   </si>
 </sst>
 </file>
@@ -745,28 +766,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28D85-B064-F646-954A-277E8D659D34}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -775,13 +817,35 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
         <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>84.6</v>
+      </c>
+      <c r="F2">
+        <v>42.5</v>
+      </c>
+      <c r="G2">
+        <v>1.24</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C0263-AF03-8E44-9117-3EC7614DCD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A7536-BBD5-0E46-BE74-282D872105CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>description</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>crop_type</t>
   </si>
   <si>
     <t>scenario</t>
@@ -768,9 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28D85-B064-F646-954A-277E8D659D34}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -789,25 +784,25 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -857,9 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F099D-606A-354D-9FEF-45FAE806DF04}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -881,10 +874,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A7536-BBD5-0E46-BE74-282D872105CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876FBCBC-DB32-1A43-83B8-989DE10000DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -852,7 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F099D-606A-354D-9FEF-45FAE806DF04}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876FBCBC-DB32-1A43-83B8-989DE10000DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBC287-B95A-F04C-8C3C-71CDB1E07766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="14200" yWindow="500" windowWidth="11700" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>description</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>soil_sgd_sqm</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>LettuceRomaine</t>
   </si>
 </sst>
 </file>
@@ -593,17 +599,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <v>7</v>
@@ -733,8 +739,8 @@
       <c r="Q2">
         <v>12</v>
       </c>
-      <c r="R2">
-        <v>12</v>
+      <c r="R2" t="s">
+        <v>6</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -753,6 +759,148 @@
       </c>
       <c r="X2">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="68">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.7</v>
+      </c>
+      <c r="Q3">
+        <v>14.4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>326</v>
+      </c>
+      <c r="V3">
+        <v>278</v>
+      </c>
+      <c r="W3">
+        <v>240</v>
+      </c>
+      <c r="X3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="68">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.7</v>
+      </c>
+      <c r="Q4">
+        <v>14.4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>241</v>
+      </c>
+      <c r="V4">
+        <v>343</v>
+      </c>
+      <c r="W4">
+        <v>413</v>
+      </c>
+      <c r="X4">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -763,12 +911,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28D85-B064-F646-954A-277E8D659D34}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="5" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -840,6 +991,64 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>84.6</v>
+      </c>
+      <c r="F3">
+        <v>42.5</v>
+      </c>
+      <c r="G3">
+        <v>1.24</v>
+      </c>
+      <c r="H3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>12.8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>84.6</v>
+      </c>
+      <c r="F4">
+        <v>42.5</v>
+      </c>
+      <c r="G4">
+        <v>1.24</v>
+      </c>
+      <c r="H4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I4">
         <v>0.43</v>
       </c>
     </row>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBC287-B95A-F04C-8C3C-71CDB1E07766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992850A8-CC81-FA4E-AEC5-E63F8040B8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="500" windowWidth="11700" windowHeight="16940" activeTab="2" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>description</t>
   </si>
@@ -65,18 +65,6 @@
     <t>temp_opt_gro_l_c</t>
   </si>
   <si>
-    <t>temp_por_l_c</t>
-  </si>
-  <si>
-    <t>temp_por_u_c</t>
-  </si>
-  <si>
-    <t>cycl_l_day</t>
-  </si>
-  <si>
-    <t>cycl_u_day</t>
-  </si>
-  <si>
     <t>humd_l</t>
   </si>
   <si>
@@ -222,6 +210,27 @@
   </si>
   <si>
     <t>LettuceRomaine</t>
+  </si>
+  <si>
+    <t>BitterGourd</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>CaiXinHongKong</t>
+  </si>
+  <si>
+    <t>non_experiment_data_using_okra_as_a_replacement</t>
+  </si>
+  <si>
+    <t>unkown</t>
+  </si>
+  <si>
+    <t>MustardGreen</t>
+  </si>
+  <si>
+    <t>FlatMustardGreen</t>
   </si>
 </sst>
 </file>
@@ -599,10 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5D7C-03A3-E547-BB27-3867A23F521A}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -610,10 +622,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -621,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -635,59 +647,47 @@
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="170">
+    </row>
+    <row r="2" spans="1:21" ht="170">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -709,64 +709,52 @@
       <c r="G2">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
+      <c r="H2">
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
+        <v>0.6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
+      <c r="N2" t="s">
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>0.6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4.5</v>
       </c>
       <c r="Q2">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>6</v>
+        <v>265</v>
+      </c>
+      <c r="R2">
+        <v>129</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="T2">
-        <v>4.5</v>
-      </c>
-      <c r="U2">
-        <v>265</v>
-      </c>
-      <c r="V2">
-        <v>129</v>
-      </c>
-      <c r="W2">
-        <v>334</v>
-      </c>
-      <c r="X2">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="68">
+    <row r="3" spans="1:21" ht="68">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -780,64 +768,52 @@
       <c r="G3">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
+        <v>14.4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>14.4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
+        <v>326</v>
+      </c>
+      <c r="R3">
+        <v>278</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <v>326</v>
-      </c>
-      <c r="V3">
-        <v>278</v>
-      </c>
-      <c r="W3">
-        <v>240</v>
-      </c>
-      <c r="X3">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="68">
+    <row r="4" spans="1:21" ht="68">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -851,56 +827,342 @@
       <c r="G4">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
       </c>
       <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>14.4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>241</v>
+      </c>
+      <c r="R4">
+        <v>343</v>
+      </c>
+      <c r="S4">
+        <v>413</v>
+      </c>
+      <c r="T4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="85">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>0.8</v>
+      </c>
+      <c r="P5">
+        <v>1.2</v>
+      </c>
+      <c r="Q5">
+        <v>1147</v>
+      </c>
+      <c r="R5">
+        <v>1032</v>
+      </c>
+      <c r="S5">
+        <v>1438</v>
+      </c>
+      <c r="T5">
+        <v>899</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="68">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>106</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.65</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>10.8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>2824</v>
+      </c>
+      <c r="R6">
+        <v>218</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="68">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <v>45</v>
       </c>
-      <c r="L4">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <v>0.7</v>
-      </c>
-      <c r="Q4">
-        <v>14.4</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>1.5</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>241</v>
-      </c>
-      <c r="V4">
-        <v>343</v>
-      </c>
-      <c r="W4">
-        <v>413</v>
-      </c>
-      <c r="X4">
-        <v>330</v>
+      <c r="Q7">
+        <v>6408</v>
+      </c>
+      <c r="R7">
+        <v>6287</v>
+      </c>
+      <c r="S7">
+        <v>5095</v>
+      </c>
+      <c r="T7">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="68">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>10340</v>
+      </c>
+      <c r="R8">
+        <v>13306</v>
+      </c>
+      <c r="S8">
+        <v>17325</v>
+      </c>
+      <c r="T8">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="68">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.8</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>4995</v>
+      </c>
+      <c r="R9">
+        <v>10080</v>
+      </c>
+      <c r="S9">
+        <v>10417</v>
+      </c>
+      <c r="T9">
+        <v>2926</v>
       </c>
     </row>
   </sheetData>
@@ -911,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C28D85-B064-F646-954A-277E8D659D34}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -929,31 +1191,31 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -967,7 +1229,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -996,7 +1258,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1025,7 +1287,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>12.8</v>
@@ -1050,6 +1312,151 @@
       </c>
       <c r="I4">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>10.8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>84.6</v>
+      </c>
+      <c r="F5">
+        <v>42.5</v>
+      </c>
+      <c r="G5">
+        <v>1.24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>11.98</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>84.6</v>
+      </c>
+      <c r="F6">
+        <v>42.5</v>
+      </c>
+      <c r="G6">
+        <v>1.24</v>
+      </c>
+      <c r="H6">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>10.5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>84.6</v>
+      </c>
+      <c r="F7">
+        <v>42.5</v>
+      </c>
+      <c r="G7">
+        <v>1.24</v>
+      </c>
+      <c r="H7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>84.6</v>
+      </c>
+      <c r="F8">
+        <v>42.5</v>
+      </c>
+      <c r="G8">
+        <v>1.24</v>
+      </c>
+      <c r="H8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>9.17</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>84.6</v>
+      </c>
+      <c r="F9">
+        <v>42.5</v>
+      </c>
+      <c r="G9">
+        <v>1.24</v>
+      </c>
+      <c r="H9">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774F099D-606A-354D-9FEF-45FAE806DF04}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1085,72 +1492,72 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0.56000000000000005</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>0.46926400000000001</v>
@@ -1165,7 +1572,7 @@
         <v>7.825E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.2501340000000001</v>
@@ -1180,7 +1587,7 @@
         <v>0.37675500000000001</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O2">
         <v>40.514409999999998</v>
@@ -1197,16 +1604,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0.44530500000000001</v>
@@ -1221,7 +1628,7 @@
         <v>5.2609999999999997E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.1193759999999999</v>
@@ -1236,7 +1643,7 @@
         <v>0.23959800000000001</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O3">
         <v>40.495780000000003</v>
@@ -1253,16 +1660,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>2E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>0.37559100000000001</v>
@@ -1277,7 +1684,7 @@
         <v>3.1410000000000001E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.826109</v>
@@ -1292,7 +1699,7 @@
         <v>1.5114000000000001E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O4">
         <v>37.894750000000002</v>
@@ -1309,16 +1716,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0.422315</v>
@@ -1333,7 +1740,7 @@
         <v>3.0230000000000001E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>2.4436909999999998</v>
@@ -1348,7 +1755,7 @@
         <v>1.4551E-2</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O5">
         <v>22.6083</v>
@@ -1365,16 +1772,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6">
         <v>2E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0.26783000000000001</v>
@@ -1389,7 +1796,7 @@
         <v>3.0479999999999999E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.6524460000000001</v>
@@ -1404,7 +1811,7 @@
         <v>1.4671E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O6">
         <v>35.471089999999997</v>
@@ -1421,16 +1828,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>1.5373619999999999</v>
@@ -1445,7 +1852,7 @@
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>7.5076039999999997</v>
@@ -1460,7 +1867,7 @@
         <v>1.4933E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O7">
         <v>14.00427</v>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992850A8-CC81-FA4E-AEC5-E63F8040B8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BEDEC-9C0A-DD4C-8000-B7C2E5CDF944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -611,10 +611,10 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -867,10 +867,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="85">
+    <row r="5" spans="1:21" ht="68">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
@@ -925,9 +928,7 @@
       <c r="T5">
         <v>899</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="68">
       <c r="A6" s="4" t="s">

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shi_zhongming/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BEDEC-9C0A-DD4C-8000-B7C2E5CDF944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234140C2-076D-1741-AAA4-A71D6352A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
   <sheets>
     <sheet name="crop" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>description</t>
   </si>
@@ -231,13 +231,16 @@
   </si>
   <si>
     <t>FlatMustardGreen</t>
+  </si>
+  <si>
+    <t>temp_opt_gro_u_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +251,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,6 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,13 +622,13 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
@@ -625,7 +636,7 @@
     <col min="21" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -645,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -687,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="170">
+    <row r="2" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -749,7 +760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="68">
+    <row r="3" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -808,7 +819,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="68">
+    <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -867,7 +878,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="68">
+    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -930,7 +941,7 @@
       </c>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="68">
+    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="68">
+    <row r="7" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="68">
+    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1061,11 +1072,11 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+      <c r="F8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>25</v>
       </c>
       <c r="H8">
         <v>45</v>
@@ -1107,7 +1118,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="68">
+    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1191,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
@@ -1190,7 +1201,7 @@
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1239,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1484,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
@@ -1491,7 +1502,7 @@
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>8.4938E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>5.8622E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>3.4150000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>3.2850000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>3.313E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234140C2-076D-1741-AAA4-A71D6352A878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761FB8A-C647-414D-B306-35A591D0BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -625,7 +625,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>12</v>

--- a/bia/equation/bia_data.xlsx
+++ b/bia/equation/bia_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/cea-plugin-bia/bia/equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761FB8A-C647-414D-B306-35A591D0BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47A35F9-5976-EE41-999A-59EEB2BF4751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="27740" windowHeight="17500" xr2:uid="{CF3DEF0F-91FB-1846-99BB-4025335B9F21}"/>
   </bookViews>
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>12</v>
